--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Extension created as part of OncoFAIR,Extension créée dans le cadre d'OncoFAIR</t>
   </si>
   <si>
     <t>CarePlan.extension:oncofair-pharmacist-advice</t>
@@ -485,6 +485,9 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-pharmacist-advice}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre d'OncoFAIR</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>
@@ -2893,7 +2896,7 @@
         <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2976,14 +2979,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3005,16 +3008,16 @@
         <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3063,7 +3066,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3095,10 +3098,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3121,19 +3124,19 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3182,7 +3185,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3197,27 +3200,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3240,13 +3243,13 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3297,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3315,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3329,10 +3332,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3358,13 +3361,13 @@
         <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3414,7 +3417,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3432,13 +3435,13 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3446,14 +3449,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3472,17 +3475,17 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3531,7 +3534,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3546,10 +3549,10 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3563,14 +3566,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3589,19 +3592,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3650,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3668,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3682,10 +3685,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3708,16 +3711,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3767,7 +3770,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3799,10 +3802,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3828,16 +3831,16 @@
         <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3865,10 +3868,10 @@
         <v>113</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3886,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -3901,27 +3904,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3947,16 +3950,16 @@
         <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3984,10 +3987,10 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4005,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>89</v>
@@ -4023,7 +4026,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4063,19 +4066,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4100,13 +4103,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4124,7 +4127,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4145,7 +4148,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4182,13 +4185,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4239,7 +4242,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4254,7 +4257,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4271,10 +4274,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4297,17 +4300,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4356,7 +4359,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4377,7 +4380,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4388,14 +4391,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4414,13 +4417,13 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4471,7 +4474,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -4489,24 +4492,24 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4529,16 +4532,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4588,7 +4591,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4606,28 +4609,28 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4646,19 +4649,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4707,7 +4710,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4725,28 +4728,28 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4765,13 +4768,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4822,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4840,13 +4843,13 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4854,10 +4857,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4880,16 +4883,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4939,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4957,10 +4960,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -4971,10 +4974,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4997,16 +5000,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5056,7 +5059,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5088,10 +5091,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5114,17 +5117,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5173,7 +5176,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5191,10 +5194,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5205,10 +5208,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5231,19 +5234,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5268,13 +5271,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5292,7 +5295,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5310,24 +5313,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5350,19 +5353,19 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5411,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5429,7 +5432,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5469,19 +5472,19 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5530,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5554,18 +5557,18 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5588,17 +5591,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5647,7 +5650,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5665,13 +5668,13 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5679,10 +5682,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5705,13 +5708,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5762,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5771,7 +5774,7 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -5786,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5794,14 +5797,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5823,13 +5826,13 @@
         <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5879,7 +5882,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5903,7 +5906,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5911,14 +5914,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5940,16 +5943,16 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5998,7 +6001,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6056,19 +6059,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6093,13 +6096,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6117,7 +6120,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6135,13 +6138,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6175,19 +6178,19 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6236,7 +6239,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6260,18 +6263,18 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6294,19 +6297,19 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6355,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6373,13 +6376,13 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6387,10 +6390,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6413,17 +6416,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6463,7 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -6470,7 +6473,7 @@
         <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6488,27 +6491,27 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>79</v>
@@ -6530,17 +6533,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6589,7 +6592,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6604,27 +6607,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6650,10 +6653,10 @@
         <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6665,7 +6668,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -6704,7 +6707,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6713,7 +6716,7 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6728,7 +6731,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6736,14 +6739,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6765,13 +6768,13 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6812,7 +6815,7 @@
         <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
@@ -6821,7 +6824,7 @@
         <v>140</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6845,7 +6848,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -6853,10 +6856,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,16 +6882,16 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6938,7 +6941,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6962,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>134</v>
@@ -6970,10 +6973,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6996,13 +6999,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7053,7 +7056,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7077,7 +7080,7 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>134</v>
@@ -7085,10 +7088,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7111,13 +7114,13 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7168,7 +7171,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7192,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>134</v>
@@ -7200,13 +7203,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>79</v>
@@ -7228,17 +7231,17 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7287,7 +7290,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7302,27 +7305,27 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7348,10 +7351,10 @@
         <v>91</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7363,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>79</v>
@@ -7402,7 +7405,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7411,7 +7414,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7426,7 +7429,7 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7434,14 +7437,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7463,13 +7466,13 @@
         <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7510,7 +7513,7 @@
         <v>139</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
@@ -7519,7 +7522,7 @@
         <v>140</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7543,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7551,10 +7554,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7577,16 +7580,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7636,7 +7639,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7660,7 +7663,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>134</v>
@@ -7668,10 +7671,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7694,13 +7697,13 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7751,7 +7754,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7775,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>134</v>
@@ -7783,10 +7786,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7809,13 +7812,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7866,7 +7869,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>89</v>
@@ -7890,7 +7893,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>134</v>
@@ -7898,13 +7901,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>79</v>
@@ -7926,17 +7929,17 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -7985,7 +7988,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8003,24 +8006,24 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8046,10 +8049,10 @@
         <v>91</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8061,7 +8064,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8100,7 +8103,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8109,7 +8112,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8124,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8132,14 +8135,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8161,13 +8164,13 @@
         <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8208,7 +8211,7 @@
         <v>139</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
@@ -8217,7 +8220,7 @@
         <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8241,7 +8244,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8249,10 +8252,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8275,16 +8278,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8334,7 +8337,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8361,7 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>134</v>
@@ -8366,10 +8369,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8392,13 +8395,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8449,7 +8452,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8473,7 +8476,7 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>134</v>
@@ -8481,10 +8484,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8507,13 +8510,13 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8564,7 +8567,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>89</v>
@@ -8588,7 +8591,7 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>134</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,8 @@
 </t>
   </si>
   <si>
-    <t>Extension created as part of OncoFAIR,Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Extension created as part of OncoFAIR grouping together the treatment number, the day number and the reference date and time of the prescribed protocol. 
+Extension créée dans le cadre d'OncoFAIR regroupant le numéro de cure, le numéro de jour ainsi que la date et heure de référence du protocole prescrit.</t>
   </si>
   <si>
     <t>CarePlan.extension:oncofair-pharmacist-advice</t>
@@ -487,7 +488,8 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Extension created as part of OncoFAIR containing the validation and pharmaceutical proposal. 
+Extension créée dans le cadre d'OncoFAIR contenant la validation et proposition pharmaceutique.</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This object describes the chaining of prescription elements attached to the prescribed protocol. Its structure enables the chaining of nested sub-protocols.</t>
+    <t>This object describes the chaining of prescription elements attached to the prescribed protocol. Its structure enables the chaining of nested sub-protocols. 
+Cet objet décrit le chaînage des éléments de prescription rattachés au protocole prescrit. Sa structure permet le chaînage de sous-protocoles imbriqués.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -273,7 +274,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>PROTOCOLE PRESCRIT</t>
+    <t>ProtocolePrescrit</t>
   </si>
   <si>
     <t>Request</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,31 +523,232 @@
 </t>
   </si>
   <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R5/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>idProtocolePrescrit</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Prescribed protocol identifier</t>
   </si>
   <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R5/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>idProtocolePrescrit</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>CarePlan.instantiatesCanonical</t>
@@ -707,10 +908,6 @@
     <t>CarePlan.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Type of plan</t>
   </si>
   <si>
@@ -736,10 +933,6 @@
   </si>
   <si>
     <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Wording of the prescribed protocol</t>
@@ -830,10 +1023,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period plan covers</t>
   </si>
   <si>
@@ -1050,32 +1239,7 @@
     <t>CarePlan.activity.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1212,9 +1376,6 @@
   </si>
   <si>
     <t>CarePlan.note.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>CarePlan.note:indication.author[x]</t>
@@ -1642,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1670,7 +1831,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1689,7 +1850,7 @@
     <col min="37" max="37" width="50.34375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="67.90625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="99.94921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="28.37109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3234,7 +3395,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3243,16 +3404,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3303,25 +3464,25 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3342,7 +3503,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3358,10 +3519,10 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>176</v>
@@ -3370,7 +3531,7 @@
         <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3408,19 +3569,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3432,13 +3593,13 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3459,36 +3620,38 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3513,13 +3676,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3537,13 +3700,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3552,38 +3715,38 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3595,19 +3758,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3632,13 +3795,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3656,13 +3819,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -3674,24 +3837,24 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3702,7 +3865,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3714,18 +3877,20 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3737,7 +3902,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3773,13 +3938,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3797,18 +3962,18 @@
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3816,35 +3981,33 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3856,7 +4019,7 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>79</v>
@@ -3868,13 +4031,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3892,42 +4055,42 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3935,7 +4098,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
@@ -3944,26 +4107,22 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3987,13 +4146,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4011,10 +4170,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4029,24 +4188,24 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4057,7 +4216,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4069,20 +4228,18 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4106,13 +4263,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4130,13 +4287,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4151,21 +4308,21 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4173,13 +4330,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
@@ -4188,13 +4345,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4245,13 +4402,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4260,16 +4417,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4277,10 +4434,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4291,7 +4448,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4303,18 +4460,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4362,13 +4519,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4380,13 +4537,13 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4394,21 +4551,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4420,16 +4577,18 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4477,13 +4636,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4492,38 +4651,38 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4535,18 +4694,20 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4594,13 +4755,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4612,35 +4773,35 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4652,20 +4813,18 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4713,13 +4872,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -4731,56 +4890,60 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4804,13 +4967,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -4828,10 +4991,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
@@ -4843,19 +5006,19 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4871,7 +5034,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -4880,24 +5043,26 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4921,13 +5086,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4948,7 +5113,7 @@
         <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -4963,10 +5128,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -4977,10 +5142,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5000,21 +5165,23 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5038,13 +5205,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5062,7 +5229,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5083,7 +5250,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5094,10 +5261,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5105,33 +5272,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5179,13 +5344,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -5194,13 +5359,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5211,10 +5376,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5225,7 +5390,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5237,19 +5402,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5274,13 +5437,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5298,13 +5461,13 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -5316,35 +5479,35 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5353,23 +5516,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5417,13 +5576,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5435,24 +5594,24 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5463,7 +5622,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5472,23 +5631,21 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5536,13 +5693,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5554,35 +5711,35 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5591,18 +5748,20 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>324</v>
       </c>
@@ -5653,13 +5812,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5674,25 +5833,25 @@
         <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5708,16 +5867,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5768,7 +5927,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5777,22 +5936,22 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5800,21 +5959,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5823,19 +5982,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5885,31 +6044,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5917,14 +6076,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5937,26 +6096,24 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6004,7 +6161,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6016,7 +6173,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6028,7 +6185,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6036,10 +6193,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6062,19 +6219,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6099,31 +6254,31 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6141,13 +6296,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6155,10 +6310,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6178,22 +6333,22 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6218,13 +6373,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6242,7 +6397,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6260,24 +6415,24 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6288,7 +6443,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6300,19 +6455,19 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6361,13 +6516,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6379,13 +6534,13 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6393,10 +6548,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6410,7 +6565,7 @@
         <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
@@ -6419,17 +6574,19 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6466,17 +6623,19 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6494,28 +6653,26 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6524,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6536,17 +6693,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6595,7 +6752,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6610,27 +6767,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6638,7 +6795,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6653,13 +6810,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6671,7 +6828,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -6710,7 +6867,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6719,7 +6876,7 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6734,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6742,10 +6899,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6771,10 +6928,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>155</v>
@@ -6815,19 +6972,19 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6851,7 +7008,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -6859,44 +7016,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6944,19 +7103,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6968,18 +7127,18 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6990,7 +7149,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -6999,19 +7158,23 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7035,13 +7198,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7059,13 +7222,13 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7077,24 +7240,24 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7102,10 +7265,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7114,19 +7277,23 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7174,13 +7341,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7198,22 +7365,20 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>134</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7234,17 +7399,19 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7293,13 +7460,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7308,27 +7475,27 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7336,13 +7503,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>79</v>
@@ -7351,16 +7518,18 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>91</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7369,7 +7538,7 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>79</v>
@@ -7396,65 +7565,65 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7466,18 +7635,18 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>334</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7513,19 +7682,19 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7537,30 +7706,30 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7568,7 +7737,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7580,20 +7749,18 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7603,7 +7770,7 @@
         <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>79</v>
@@ -7642,7 +7809,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7651,10 +7818,10 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7666,29 +7833,29 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7697,18 +7864,20 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7745,31 +7914,31 @@
         <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7781,18 +7950,18 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7800,7 +7969,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -7815,15 +7984,17 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7872,10 +8043,10 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>89</v>
@@ -7896,7 +8067,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>134</v>
@@ -7904,14 +8075,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>79</v>
       </c>
@@ -7929,21 +8098,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -7991,13 +8158,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8009,24 +8176,24 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>359</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8046,16 +8213,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
+        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8067,7 +8234,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8106,19 +8273,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8130,29 +8297,31 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8164,18 +8333,18 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>457</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8211,19 +8380,19 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8235,30 +8404,30 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8266,7 +8435,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8278,20 +8447,18 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8301,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8340,7 +8507,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8349,10 +8516,10 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8364,29 +8531,29 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8395,18 +8562,20 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8443,31 +8612,31 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8479,18 +8648,18 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8498,7 +8667,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
@@ -8513,15 +8682,17 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8570,10 +8741,10 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>89</v>
@@ -8594,14 +8765,942 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>134</v>
       </c>
     </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8611,7 +9710,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,6 +475,9 @@
 </t>
   </si>
   <si>
+    <t>OncoFAIRCPTreatment</t>
+  </si>
+  <si>
     <t>Extension created as part of OncoFAIR grouping together the treatment number, the day number and the reference date and time of the prescribed protocol. 
 Extension créée dans le cadre d'OncoFAIR regroupant le numéro de cure, le numéro de jour ainsi que la date et heure de référence du protocole prescrit.</t>
   </si>
@@ -487,6 +490,9 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-pharmacist-advice}
 </t>
+  </si>
+  <si>
+    <t>OncoFAIRPharmacistAdvice</t>
   </si>
   <si>
     <t>Extension created as part of OncoFAIR containing the validation and pharmaceutical proposal. 
@@ -2940,10 +2946,10 @@
         <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3054,13 +3060,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3143,14 +3149,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3172,16 +3178,16 @@
         <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3230,7 +3236,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3262,10 +3268,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3288,19 +3294,19 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3349,7 +3355,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3364,27 +3370,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3410,10 +3416,10 @@
         <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3464,7 +3470,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3473,7 +3479,7 @@
         <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3488,7 +3494,7 @@
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3496,14 +3502,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3525,13 +3531,13 @@
         <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3572,7 +3578,7 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
@@ -3581,7 +3587,7 @@
         <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3605,7 +3611,7 @@
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3613,10 +3619,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3642,16 +3648,16 @@
         <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3679,10 +3685,10 @@
         <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3700,7 +3706,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3724,7 +3730,7 @@
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>134</v>
@@ -3732,10 +3738,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3758,19 +3764,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3795,13 +3801,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3819,7 +3825,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3843,18 +3849,18 @@
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3880,16 +3886,16 @@
         <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3902,7 +3908,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3938,7 +3944,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3962,18 +3968,18 @@
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3996,16 +4002,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4019,7 +4025,7 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>79</v>
@@ -4055,7 +4061,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4064,7 +4070,7 @@
         <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
@@ -4079,18 +4085,18 @@
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4113,13 +4119,13 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4170,7 +4176,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4194,18 +4200,18 @@
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4228,16 +4234,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4287,7 +4293,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4311,18 +4317,18 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4345,13 +4351,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4402,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4420,13 +4426,13 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4463,13 +4469,13 @@
         <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4519,7 +4525,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4537,13 +4543,13 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4551,14 +4557,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4577,17 +4583,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4636,7 +4642,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4654,7 +4660,7 @@
         <v>84</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4668,14 +4674,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4694,19 +4700,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4755,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4773,7 +4779,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4787,10 +4793,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4813,16 +4819,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4872,7 +4878,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4904,10 +4910,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4933,16 +4939,16 @@
         <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4970,28 +4976,28 @@
         <v>113</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
@@ -5006,27 +5012,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5052,16 +5058,16 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5089,10 +5095,10 @@
         <v>113</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5110,7 +5116,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5128,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5142,10 +5148,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5168,19 +5174,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5205,13 +5211,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5229,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5250,7 +5256,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5261,10 +5267,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5287,13 +5293,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5344,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5359,7 +5365,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -5376,10 +5382,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5402,17 +5408,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5461,7 +5467,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5482,7 +5488,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5493,14 +5499,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5519,13 +5525,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5576,7 +5582,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>89</v>
@@ -5594,24 +5600,24 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5634,16 +5640,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5693,7 +5699,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5711,28 +5717,28 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5751,19 +5757,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5818,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5830,28 +5836,28 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5870,13 +5876,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5927,7 +5933,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5945,13 +5951,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5959,10 +5965,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5985,16 +5991,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6044,7 +6050,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6062,10 +6068,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6076,10 +6082,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6102,16 +6108,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6161,7 +6167,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6193,10 +6199,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6219,17 +6225,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6278,7 +6284,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6296,10 +6302,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6310,10 +6316,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6336,19 +6342,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6373,13 +6379,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6397,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6415,24 +6421,24 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6455,19 +6461,19 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6522,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6540,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6548,10 +6554,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6574,19 +6580,19 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6635,7 +6641,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6659,18 +6665,18 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6693,17 +6699,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6752,7 +6758,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6770,13 +6776,13 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6790,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6810,13 +6816,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6867,7 +6873,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6876,7 +6882,7 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6891,7 +6897,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6899,14 +6905,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6928,13 +6934,13 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6984,7 +6990,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7008,7 +7014,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7016,14 +7022,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7045,16 +7051,16 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7103,7 +7109,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7135,10 +7141,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7161,19 +7167,19 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7198,13 +7204,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7222,7 +7228,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7240,13 +7246,13 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7254,10 +7260,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7280,19 +7286,19 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7347,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7365,18 +7371,18 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7399,19 +7405,19 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7460,7 +7466,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7478,13 +7484,13 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7492,10 +7498,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7518,17 +7524,17 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7565,7 +7571,7 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
@@ -7575,7 +7581,7 @@
         <v>140</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7593,27 +7599,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>79</v>
@@ -7635,17 +7641,17 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7694,7 +7700,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7709,27 +7715,27 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7755,10 +7761,10 @@
         <v>91</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7770,7 +7776,7 @@
         <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>79</v>
@@ -7809,7 +7815,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7818,7 +7824,7 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -7833,7 +7839,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7841,14 +7847,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7870,13 +7876,13 @@
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7917,7 +7923,7 @@
         <v>139</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>79</v>
@@ -7926,7 +7932,7 @@
         <v>140</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7950,7 +7956,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -7958,10 +7964,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7984,16 +7990,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8043,7 +8049,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8067,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>134</v>
@@ -8075,10 +8081,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8101,13 +8107,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8158,7 +8164,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8182,7 +8188,7 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>134</v>
@@ -8190,10 +8196,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8216,13 +8222,13 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8273,7 +8279,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8297,7 +8303,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>134</v>
@@ -8305,13 +8311,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>79</v>
@@ -8333,17 +8339,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8392,7 +8398,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8407,27 +8413,27 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8453,10 +8459,10 @@
         <v>91</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8468,7 +8474,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8507,7 +8513,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8516,7 +8522,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8531,7 +8537,7 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8539,14 +8545,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8568,13 +8574,13 @@
         <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8615,7 +8621,7 @@
         <v>139</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
@@ -8624,7 +8630,7 @@
         <v>140</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8648,7 +8654,7 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -8656,10 +8662,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8682,16 +8688,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8741,7 +8747,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8765,7 +8771,7 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>134</v>
@@ -8773,10 +8779,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8799,13 +8805,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8856,7 +8862,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8880,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>134</v>
@@ -8888,10 +8894,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8914,13 +8920,13 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8971,7 +8977,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>89</v>
@@ -8995,7 +9001,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>134</v>
@@ -9003,13 +9009,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9031,17 +9037,17 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9090,7 +9096,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9108,24 +9114,24 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9151,10 +9157,10 @@
         <v>91</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9166,7 +9172,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9205,7 +9211,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9214,7 +9220,7 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9229,7 +9235,7 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9237,14 +9243,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9266,13 +9272,13 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9313,7 +9319,7 @@
         <v>139</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
@@ -9322,7 +9328,7 @@
         <v>140</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9346,7 +9352,7 @@
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9354,10 +9360,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9380,16 +9386,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9439,7 +9445,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9463,7 +9469,7 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>134</v>
@@ -9471,10 +9477,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9497,13 +9503,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9554,7 +9560,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9578,7 +9584,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>134</v>
@@ -9586,10 +9592,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9612,13 +9618,13 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9669,7 +9675,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -9693,7 +9699,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>134</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,9 +238,6 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Mapping du profil OncoFAIR CarePlan</t>
-  </si>
-  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>ProtocolePrescrit</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -544,9 +538,6 @@
     <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t>idProtocolePrescrit</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -878,9 +869,6 @@
     <t>http://hl7.org/fhir/ValueSet/request-status|5.0.0</t>
   </si>
   <si>
-    <t>CreationArretModificationValidation</t>
-  </si>
-  <si>
     <t>Request.status {uses different ValueSet}</t>
   </si>
   <si>
@@ -933,6 +921,13 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="C3665472"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -952,9 +947,6 @@
   </si>
   <si>
     <t>Human-friendly name for the care plan.</t>
-  </si>
-  <si>
-    <t>libelleProtocolePrescrit</t>
   </si>
   <si>
     <t>CarePlan.description</t>
@@ -1463,9 +1455,6 @@
   </si>
   <si>
     <t>Comments associated with the prescribed protocol</t>
-  </si>
-  <si>
-    <t>commentaires</t>
   </si>
   <si>
     <t>CarePlan.note:comments.id</t>
@@ -1824,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1868,11 +1857,10 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.34375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.90625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.37109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="67.90625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.37109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1996,9 +1984,6 @@
       <c r="AN1" t="s" s="1">
         <v>76</v>
       </c>
-      <c r="AO1" t="s" s="1">
-        <v>77</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -2009,32 +1994,32 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2088,39 +2073,36 @@
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AO2" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2128,31 +2110,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2202,13 +2184,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2226,18 +2208,15 @@
         <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO3" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2245,10 +2224,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -2257,16 +2236,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2317,19 +2296,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2341,18 +2320,15 @@
         <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO4" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2360,31 +2336,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2434,19 +2410,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2458,18 +2434,15 @@
         <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO5" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2477,10 +2450,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2492,16 +2465,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2527,43 +2500,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2575,29 +2548,26 @@
         <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO6" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2609,16 +2579,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2668,54 +2638,51 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AO7" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -2726,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2785,42 +2752,39 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO8" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2828,10 +2792,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2843,13 +2807,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2888,30 +2852,30 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
@@ -2922,34 +2886,31 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO9" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>20</v>
@@ -2958,13 +2919,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3015,19 +2976,19 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3039,34 +3000,31 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO10" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
@@ -3075,13 +3033,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3132,19 +3090,19 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -3156,53 +3114,50 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO11" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3251,19 +3206,19 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3272,21 +3227,18 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO12" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3294,34 +3246,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3370,42 +3322,39 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3413,28 +3362,28 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3485,16 +3434,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>20</v>
@@ -3506,33 +3455,30 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO14" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3543,16 +3489,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3590,32 +3536,32 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3623,21 +3569,18 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO15" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3645,34 +3588,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3697,66 +3640,63 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3764,10 +3704,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3776,22 +3716,22 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3816,66 +3756,63 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3883,10 +3820,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3895,22 +3832,22 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3923,78 +3860,75 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4002,10 +3936,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -4014,19 +3948,19 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4040,78 +3974,75 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4119,10 +4050,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4131,16 +4062,16 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4191,19 +4122,19 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -4212,21 +4143,18 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4234,10 +4162,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4246,19 +4174,19 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4308,19 +4236,19 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4329,21 +4257,18 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4351,11 +4276,11 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4363,16 +4288,16 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4423,42 +4348,39 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AO22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4466,11 +4388,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4478,19 +4400,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4540,54 +4462,51 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AO23" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4595,20 +4514,20 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4657,54 +4576,51 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO24" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4712,22 +4628,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4776,42 +4692,39 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4819,11 +4732,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4831,19 +4744,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4893,19 +4806,19 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -4917,18 +4830,15 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4936,34 +4846,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4988,66 +4898,63 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5055,34 +4962,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5107,13 +5014,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5131,42 +5038,39 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5174,11 +5078,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5186,22 +5090,22 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5211,7 +5115,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5226,66 +5130,63 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5293,28 +5194,28 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5365,22 +5266,22 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -5389,18 +5290,15 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5408,10 +5306,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5420,20 +5318,20 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5482,53 +5380,50 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5537,16 +5432,16 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5597,42 +5492,39 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5640,10 +5532,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5652,19 +5544,19 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5714,53 +5606,50 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5769,22 +5658,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5833,53 +5722,50 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5888,16 +5774,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5948,42 +5834,39 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5991,10 +5874,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6003,19 +5886,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6065,42 +5948,39 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO36" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6108,11 +5988,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6123,16 +6003,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6182,19 +6062,19 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6206,18 +6086,15 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO37" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6225,11 +6102,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6240,17 +6117,17 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6299,42 +6176,39 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6342,11 +6216,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6354,22 +6228,22 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6394,66 +6268,63 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6461,11 +6332,11 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6476,19 +6347,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6537,42 +6408,39 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6580,11 +6448,11 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6595,19 +6463,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6656,19 +6524,19 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6677,21 +6545,18 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6699,11 +6564,11 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6714,17 +6579,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6773,42 +6638,39 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6816,10 +6678,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6831,13 +6693,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6888,16 +6750,16 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>20</v>
@@ -6909,33 +6771,30 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6946,16 +6805,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7005,19 +6864,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7026,56 +6885,53 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7124,19 +6980,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH45" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7145,21 +7001,18 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7167,11 +7020,11 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7182,19 +7035,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7219,13 +7072,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7243,42 +7096,39 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7286,11 +7136,11 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7301,19 +7151,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7362,19 +7212,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7383,21 +7233,18 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7405,10 +7252,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7420,19 +7267,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7481,42 +7328,39 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7524,13 +7368,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7539,17 +7383,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7586,65 +7430,62 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7656,17 +7497,17 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7715,42 +7556,39 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7758,28 +7596,28 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7791,7 +7629,7 @@
         <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>20</v>
@@ -7830,16 +7668,16 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>20</v>
@@ -7851,33 +7689,30 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7888,16 +7723,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7935,32 +7770,32 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7968,21 +7803,18 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO52" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7990,10 +7822,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8002,19 +7834,19 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8064,19 +7896,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8085,21 +7917,18 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>441</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8107,10 +7936,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8119,16 +7948,16 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8179,19 +8008,19 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8200,21 +8029,18 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8222,10 +8048,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8234,16 +8060,16 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8294,19 +8120,19 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8315,34 +8141,31 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8354,17 +8177,17 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8413,42 +8236,39 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8456,28 +8276,28 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8489,7 +8309,7 @@
         <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>20</v>
@@ -8528,16 +8348,16 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>20</v>
@@ -8549,33 +8369,30 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO57" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8586,16 +8403,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8633,32 +8450,32 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8666,21 +8483,18 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8688,10 +8502,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8700,19 +8514,19 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8762,19 +8576,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8783,21 +8597,18 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
+        <v>441</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8805,10 +8616,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8817,16 +8628,16 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8877,19 +8688,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8898,21 +8709,18 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8920,10 +8728,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8932,16 +8740,16 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8992,19 +8800,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9013,34 +8821,31 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -9052,17 +8857,17 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9111,42 +8916,39 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH62" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9154,28 +8956,28 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="L63" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9187,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -9226,16 +9028,16 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>20</v>
@@ -9247,33 +9049,30 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO63" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9284,16 +9083,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9331,32 +9130,32 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9364,21 +9163,18 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AO64" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9386,10 +9182,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9398,19 +9194,19 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9460,19 +9256,19 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
@@ -9481,21 +9277,18 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>20</v>
+        <v>441</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9503,10 +9296,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9515,16 +9308,16 @@
         <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9575,19 +9368,19 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
@@ -9596,21 +9389,18 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9618,10 +9408,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9630,16 +9420,16 @@
         <v>20</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9690,19 +9480,19 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
@@ -9711,17 +9501,14 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO67">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,6 +462,22 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>CarePlan.extension:treatment-line</t>
+  </si>
+  <si>
+    <t>treatment-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/treatment-line}
+</t>
+  </si>
+  <si>
+    <t>Treatment Line Number</t>
+  </si>
+  <si>
+    <t>The treatment line number</t>
+  </si>
+  <si>
     <t>CarePlan.extension:oncofair-cp-treatment</t>
   </si>
   <si>
@@ -909,10 +925,7 @@
     <t>CarePlan.category</t>
   </si>
   <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+    <t>Type of treatment</t>
   </si>
   <si>
     <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.addresses.</t>
@@ -921,20 +934,7 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="C3665472"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/TreatmentType</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -971,7 +971,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-patient)
 </t>
   </si>
   <si>
@@ -1052,6 +1052,65 @@
     <t>GOL-7 / GOL-8</t>
   </si>
   <si>
+    <t>CarePlan.period.id</t>
+  </si>
+  <si>
+    <t>CarePlan.period.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Start date of the treatment.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>CarePlan.period.end</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>End date of the treatment</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
     <t>CarePlan.created</t>
   </si>
   <si>
@@ -1059,10 +1118,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Date record was first recorded</t>
   </si>
   <si>
@@ -1153,6 +1208,9 @@
     <t>The element can identify risks addressed by the plan as well as concerns.  Also scopes plans - multiple plans may exist addressing different concerns.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes that describe the health issues this plan addresses.</t>
   </si>
   <si>
@@ -1190,7 +1248,37 @@
     <t>Identifies barriers and other considerations associated with the care plan.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
+  </si>
+  <si>
     <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:clinical-trial</t>
+  </si>
+  <si>
+    <t>clinical-trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/clinical-trial)
+</t>
+  </si>
+  <si>
+    <t>Objective of the treatment</t>
+  </si>
+  <si>
+    <t>Is the treatment part of a clinical trial?</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo:tumor-pathology-event</t>
+  </si>
+  <si>
+    <t>tumor-pathology-event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/tumor-pathology-event)
+</t>
   </si>
   <si>
     <t>CarePlan.goal</t>
@@ -1813,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1822,7 +1910,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.03125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1846,7 +1934,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="158.5078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.58984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2904,7 +2992,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3018,7 +3106,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3122,43 +3210,41 @@
         <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3206,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3227,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>20</v>
@@ -3235,45 +3321,45 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3322,7 +3408,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3334,27 +3420,27 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3362,31 +3448,35 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3434,50 +3524,50 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3489,17 +3579,15 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3536,40 +3624,40 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AJ15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3584,26 +3672,26 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>181</v>
@@ -3612,11 +3700,9 @@
         <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3640,43 +3726,43 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3685,18 +3771,18 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3713,25 +3799,25 @@
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3756,13 +3842,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3780,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3801,18 +3887,18 @@
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3835,19 +3921,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3860,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3872,13 +3958,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3896,7 +3982,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3917,18 +4003,18 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3951,18 +4037,20 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3974,7 +4062,7 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>20</v>
@@ -4010,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4019,7 +4107,7 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>100</v>
@@ -4031,18 +4119,18 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4065,15 +4153,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4086,7 +4176,7 @@
         <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>20</v>
@@ -4122,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4131,7 +4221,7 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>100</v>
@@ -4143,18 +4233,18 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4177,17 +4267,15 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4236,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4257,18 +4345,18 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4279,7 +4367,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4291,15 +4379,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4348,13 +4438,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4363,24 +4453,24 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4403,7 +4493,7 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>241</v>
@@ -4411,9 +4501,7 @@
       <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4462,7 +4550,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4477,13 +4565,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4498,7 +4586,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4517,18 +4605,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4591,13 +4679,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4605,14 +4693,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4631,19 +4719,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4692,7 +4778,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4707,7 +4793,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4721,14 +4807,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4747,18 +4833,20 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4806,7 +4894,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4821,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4846,35 +4934,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O27" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4898,13 +4984,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4925,10 +5011,10 @@
         <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4937,24 +5023,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4968,7 +5054,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>89</v>
@@ -4980,16 +5066,16 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5017,10 +5103,10 @@
         <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5038,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5053,24 +5139,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5078,34 +5164,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5115,7 +5201,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5130,13 +5216,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5154,13 +5240,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5169,10 +5255,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5183,10 +5269,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5209,16 +5295,20 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5242,13 +5332,11 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5266,13 +5354,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5284,7 +5372,7 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5295,10 +5383,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5306,13 +5394,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5321,18 +5409,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5380,7 +5466,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5398,7 +5484,7 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5409,18 +5495,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5435,16 +5521,18 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5492,10 +5580,10 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5507,38 +5595,38 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -5547,17 +5635,15 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5606,10 +5692,10 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5621,28 +5707,28 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5661,20 +5747,18 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5722,7 +5806,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5737,28 +5821,28 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5777,16 +5861,20 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5834,7 +5922,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5849,24 +5937,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>20</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5886,20 +5974,18 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5948,7 +6034,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5957,19 +6043,19 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -5977,14 +6063,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6003,16 +6089,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6050,19 +6136,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6074,7 +6160,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6083,7 +6169,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6091,10 +6177,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6102,33 +6188,33 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6176,39 +6262,39 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6216,13 +6302,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6231,24 +6317,24 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6268,13 +6354,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6292,50 +6378,50 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6344,23 +6430,19 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6408,13 +6490,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6423,13 +6505,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6437,10 +6519,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6451,7 +6533,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6460,23 +6542,21 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6524,13 +6604,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6539,24 +6619,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6579,18 +6659,18 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6638,7 +6718,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6653,13 +6733,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6667,10 +6747,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6681,7 +6761,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6693,16 +6773,18 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>171</v>
+        <v>370</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6750,28 +6832,28 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6779,14 +6861,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6802,21 +6884,23 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
+        <v>377</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6840,13 +6924,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6864,7 +6948,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6876,31 +6960,31 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>174</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6913,25 +6997,25 @@
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>157</v>
+        <v>392</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6968,19 +7052,17 @@
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6992,16 +7074,16 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7009,12 +7091,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7023,7 +7107,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7044,10 +7128,10 @@
         <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7072,13 +7156,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7096,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7111,13 +7195,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7125,12 +7209,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7151,19 +7237,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7212,7 +7298,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7227,24 +7313,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7255,7 +7341,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7267,19 +7353,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7328,13 +7414,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7343,24 +7429,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7374,7 +7460,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7383,17 +7469,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7430,17 +7516,19 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7455,28 +7543,26 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7497,18 +7583,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>429</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7556,50 +7640,50 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>177</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>412</v>
+        <v>179</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7611,15 +7695,17 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7629,7 +7715,7 @@
         <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>20</v>
@@ -7668,19 +7754,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7689,7 +7775,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7697,14 +7783,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7717,24 +7803,26 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>176</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7770,19 +7858,19 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>179</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7803,7 +7891,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -7811,10 +7899,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7825,7 +7913,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7834,21 +7922,23 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7872,13 +7962,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7896,13 +7986,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -7911,24 +8001,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7939,7 +8029,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7948,19 +8038,23 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8008,13 +8102,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -8029,18 +8123,18 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8048,7 +8142,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8060,19 +8154,23 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8120,10 +8218,10 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>88</v>
@@ -8135,28 +8233,26 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8165,10 +8261,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -8177,17 +8273,17 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8224,19 +8320,17 @@
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8251,32 +8345,34 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>413</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8291,16 +8387,18 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>90</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>170</v>
+        <v>458</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>171</v>
+        <v>452</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8309,7 +8407,7 @@
         <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>20</v>
@@ -8348,31 +8446,31 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>20</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -8380,18 +8478,18 @@
         <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8403,17 +8501,15 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8423,7 +8519,7 @@
         <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>20</v>
@@ -8450,40 +8546,40 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF58" t="s" s="2">
+      <c r="AJ58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -8491,21 +8587,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8514,19 +8610,19 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>439</v>
+        <v>161</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8564,31 +8660,31 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>184</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8597,18 +8693,18 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>441</v>
+        <v>179</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8631,15 +8727,17 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8688,7 +8786,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8709,7 +8807,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>133</v>
@@ -8717,10 +8815,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8728,7 +8826,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -8743,13 +8841,13 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8800,10 +8898,10 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -8821,7 +8919,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>133</v>
@@ -8829,20 +8927,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8854,21 +8950,19 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8916,13 +9010,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
@@ -8931,32 +9025,34 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>413</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -8971,16 +9067,18 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>90</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>171</v>
+        <v>452</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -8989,7 +9087,7 @@
         <v>20</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>464</v>
+        <v>20</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -9028,50 +9126,50 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>20</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9083,17 +9181,15 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9103,7 +9199,7 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>20</v>
+        <v>485</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>20</v>
@@ -9130,40 +9226,40 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AD64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF64" t="s" s="2">
+      <c r="AJ64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9171,21 +9267,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9194,19 +9290,19 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>181</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>439</v>
+        <v>161</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9244,31 +9340,31 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>184</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
@@ -9277,18 +9373,18 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>441</v>
+        <v>179</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9311,15 +9407,17 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9368,7 +9466,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9389,7 +9487,7 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>133</v>
@@ -9397,10 +9495,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9408,7 +9506,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>88</v>
@@ -9423,13 +9521,13 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9480,10 +9578,10 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>88</v>
@@ -9501,14 +9599,806 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>133</v>
       </c>
     </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9518,7 +10408,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,22 +462,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CarePlan.extension:treatment-line</t>
-  </si>
-  <si>
-    <t>treatment-line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/treatment-line}
-</t>
-  </si>
-  <si>
-    <t>Treatment Line Number</t>
-  </si>
-  <si>
-    <t>The treatment line number</t>
-  </si>
-  <si>
     <t>CarePlan.extension:oncofair-cp-treatment</t>
   </si>
   <si>
@@ -925,7 +909,10 @@
     <t>CarePlan.category</t>
   </si>
   <si>
-    <t>Type of treatment</t>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
   </si>
   <si>
     <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.addresses.</t>
@@ -934,7 +921,13 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/ValueSet/TreatmentType</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -971,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
@@ -1052,72 +1045,17 @@
     <t>GOL-7 / GOL-8</t>
   </si>
   <si>
-    <t>CarePlan.period.id</t>
-  </si>
-  <si>
-    <t>CarePlan.period.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.period.start</t>
+    <t>CarePlan.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authoredOn
+</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>Start date of the treatment.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>CarePlan.period.end</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>End date of the treatment</t>
-  </si>
-  <si>
-    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>CarePlan.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authoredOn
-</t>
-  </si>
-  <si>
     <t>Date record was first recorded</t>
   </si>
   <si>
@@ -1208,9 +1146,6 @@
     <t>The element can identify risks addressed by the plan as well as concerns.  Also scopes plans - multiple plans may exist addressing different concerns.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes that describe the health issues this plan addresses.</t>
   </si>
   <si>
@@ -1248,37 +1183,7 @@
     <t>Identifies barriers and other considerations associated with the care plan.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
-</t>
-  </si>
-  <si>
     <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:clinical-trial</t>
-  </si>
-  <si>
-    <t>clinical-trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/clinical-trial)
-</t>
-  </si>
-  <si>
-    <t>Objective of the treatment</t>
-  </si>
-  <si>
-    <t>Is the treatment part of a clinical trial?</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo:tumor-pathology-event</t>
-  </si>
-  <si>
-    <t>tumor-pathology-event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/tumor-pathology-event)
-</t>
   </si>
   <si>
     <t>CarePlan.goal</t>
@@ -1901,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1910,7 +1815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.03125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1934,7 +1839,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="158.5078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.58984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2992,7 +2897,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3106,7 +3011,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3210,41 +3115,43 @@
         <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3292,7 +3199,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3313,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>20</v>
@@ -3321,45 +3228,45 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3408,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3420,27 +3327,27 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3448,35 +3355,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3524,50 +3427,50 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3579,15 +3482,17 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3624,31 +3529,31 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3657,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3672,26 +3577,26 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>181</v>
@@ -3700,9 +3605,11 @@
         <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3726,43 +3633,43 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3771,18 +3678,18 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3799,25 +3706,25 @@
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3842,13 +3749,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3866,7 +3773,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3887,18 +3794,18 @@
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3921,19 +3828,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3946,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3958,13 +3865,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3982,7 +3889,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4003,18 +3910,18 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4037,20 +3944,18 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4062,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>20</v>
@@ -4098,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4107,7 +4012,7 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>100</v>
@@ -4119,18 +4024,18 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4153,17 +4058,15 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4176,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>20</v>
@@ -4212,7 +4115,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4124,7 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>100</v>
@@ -4233,18 +4136,18 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4267,15 +4170,17 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4324,7 +4229,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4345,18 +4250,18 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4367,7 +4272,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4379,17 +4284,15 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4438,13 +4341,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4453,24 +4356,24 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4493,7 +4396,7 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>241</v>
@@ -4501,7 +4404,9 @@
       <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4550,7 +4455,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4565,13 +4470,13 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4586,7 +4491,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4605,18 +4510,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4679,13 +4584,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4693,14 +4598,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4719,17 +4624,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4778,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4793,7 +4700,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4807,14 +4714,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4833,20 +4740,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4894,7 +4799,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4909,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4934,33 +4839,35 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4984,13 +4891,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5011,10 +4918,10 @@
         <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -5023,24 +4930,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5054,7 +4961,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>89</v>
@@ -5066,16 +4973,16 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5103,28 +5010,28 @@
         <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5139,24 +5046,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5164,34 +5071,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5216,13 +5123,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5240,13 +5147,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5255,10 +5162,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5269,10 +5176,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5295,20 +5202,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5332,35 +5235,37 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5372,7 +5277,7 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5383,10 +5288,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5394,13 +5299,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5409,16 +5314,18 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5466,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5484,7 +5391,7 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5495,18 +5402,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5521,18 +5428,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5580,10 +5485,10 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5595,38 +5500,38 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -5635,15 +5540,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5692,10 +5599,10 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5707,28 +5614,28 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5747,18 +5654,20 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5806,7 +5715,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5821,28 +5730,28 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5861,20 +5770,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5922,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5937,24 +5842,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5974,18 +5879,20 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6034,7 +5941,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6043,19 +5950,19 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6063,14 +5970,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6089,16 +5996,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>161</v>
+        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6136,19 +6043,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6160,7 +6067,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6169,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6177,10 +6084,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6188,33 +6095,33 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6262,39 +6169,39 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6302,13 +6209,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6317,24 +6224,24 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6354,13 +6261,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6378,50 +6285,50 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6430,19 +6337,23 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6490,13 +6401,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6505,13 +6416,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6519,10 +6430,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6533,7 +6444,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6542,21 +6453,23 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6604,13 +6517,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6619,24 +6532,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6659,18 +6572,18 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6718,7 +6631,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6733,13 +6646,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6747,10 +6660,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6761,7 +6674,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6773,18 +6686,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6832,28 +6743,28 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6861,14 +6772,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6884,23 +6795,21 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>177</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6924,13 +6833,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6948,7 +6857,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6960,31 +6869,31 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6997,25 +6906,25 @@
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7052,17 +6961,19 @@
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7074,16 +6985,16 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7094,11 +7005,9 @@
         <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7107,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7119,19 +7028,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="O46" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7156,13 +7065,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7180,7 +7089,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7195,13 +7104,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7209,14 +7118,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7237,19 +7144,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7298,7 +7205,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7313,24 +7220,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7341,7 +7248,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7353,19 +7260,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7414,13 +7321,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7429,24 +7336,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7460,7 +7367,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7469,17 +7376,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7516,19 +7423,17 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7543,26 +7448,28 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7583,16 +7490,18 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>176</v>
+        <v>422</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7640,50 +7549,50 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>177</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>179</v>
+        <v>411</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7695,17 +7604,15 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7715,7 +7622,7 @@
         <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>20</v>
@@ -7754,19 +7661,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7775,7 +7682,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7783,14 +7690,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>421</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7803,26 +7710,24 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>423</v>
+        <v>177</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7858,19 +7763,19 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>179</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7891,7 +7796,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -7899,10 +7804,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7913,7 +7818,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7922,23 +7827,21 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7962,13 +7865,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7986,13 +7889,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -8001,24 +7904,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8029,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8038,23 +7941,19 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8102,13 +8001,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -8123,18 +8022,18 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>442</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8142,7 +8041,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8154,23 +8053,19 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8218,10 +8113,10 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>88</v>
@@ -8233,26 +8128,28 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8261,10 +8158,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -8273,17 +8170,17 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8320,17 +8217,19 @@
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8345,34 +8244,32 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8387,18 +8284,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>452</v>
+        <v>171</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8407,7 +8302,7 @@
         <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>20</v>
@@ -8446,50 +8341,50 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>450</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>441</v>
+        <v>174</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8501,15 +8396,17 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8519,7 +8416,7 @@
         <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>20</v>
@@ -8546,31 +8443,31 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8579,7 +8476,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -8587,21 +8484,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8610,19 +8507,19 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>161</v>
+        <v>438</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8660,31 +8557,31 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8693,18 +8590,18 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>179</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8727,17 +8624,15 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8786,7 +8681,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8807,7 +8702,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>133</v>
@@ -8815,10 +8710,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8826,7 +8721,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -8841,13 +8736,13 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8898,10 +8793,10 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -8919,7 +8814,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>133</v>
@@ -8927,18 +8822,20 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8950,19 +8847,21 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9010,13 +8909,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
@@ -9025,34 +8924,32 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>483</v>
+        <v>411</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>133</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9067,18 +8964,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>486</v>
+        <v>170</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>171</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9087,7 +8982,7 @@
         <v>20</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>20</v>
+        <v>463</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -9126,50 +9021,50 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>450</v>
+        <v>172</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>174</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9181,15 +9076,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9199,7 +9096,7 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>20</v>
@@ -9226,31 +9123,31 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -9259,7 +9156,7 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9267,21 +9164,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9290,19 +9187,19 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>161</v>
+        <v>438</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9340,31 +9237,31 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
@@ -9373,18 +9270,18 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>179</v>
+        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9407,17 +9304,15 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>465</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9466,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9487,7 +9382,7 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>133</v>
@@ -9495,10 +9390,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9506,7 +9401,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>88</v>
@@ -9521,13 +9416,13 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9578,10 +9473,10 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>88</v>
@@ -9599,806 +9494,14 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10408,7 +9511,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
